--- a/room/灯具购买.xlsx
+++ b/room/灯具购买.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangweichao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangweichao/application/2021/decoration/room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C4C167-B4A5-5546-868E-2092227CB7B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0E0CA-36A9-B940-94F2-877B48B17C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34840" yWindow="2360" windowWidth="28240" windowHeight="17440" xr2:uid="{AAD71B1E-60E2-B14B-92D5-78D72F4391C5}"/>
+    <workbookView xWindow="34840" yWindow="2360" windowWidth="28240" windowHeight="17440" xr2:uid="{AAD71B1E-60E2-B14B-92D5-78D72F4391C5}"/>
   </bookViews>
   <sheets>
     <sheet name="灯具" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>主卧室</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100w~150w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50w~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,18 @@
   </si>
   <si>
     <t>13w~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200w 风暖/35w 吹风换气，12W照明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,10 +191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,40 +514,40 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45" defaultRowHeight="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="45" style="1"/>
+    <col min="2" max="4" width="45" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="55" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="55" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="55" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -572,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="55" customHeight="1">
@@ -580,20 +588,29 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="55" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="55" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="55" customHeight="1">
@@ -601,17 +618,29 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="55" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="55" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="55" customHeight="1">
